--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_2_45.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_2_45.xlsx
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6327.558164931213</v>
+        <v>379653.4898958727</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6327.558164931213</v>
+        <v>379653.4898958727</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>958386721.6653328</v>
+        <v>38573386.01235315</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>8564.643861859635</v>
+        <v>821086.1638964766</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>16932.95251271255</v>
+        <v>1608196.814104348</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>25301.26116356545</v>
+        <v>2395307.46431222</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>34057.83246245632</v>
+        <v>3157301.382453386</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>42518.57389560257</v>
+        <v>3944412.032661258</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>50979.31532874882</v>
+        <v>4731522.682869129</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>59440.05676189507</v>
+        <v>5518633.333076998</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>67900.79819504131</v>
+        <v>6305743.983284866</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>76603.10611900441</v>
+        <v>7070589.399787211</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>85065.80670078075</v>
+        <v>7857459.331117761</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>93526.54813392699</v>
+        <v>8644569.981325636</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>101987.2895670732</v>
+        <v>9431680.631533513</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>110448.0310002194</v>
+        <v>10218791.28174139</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>118908.7724333657</v>
+        <v>11005901.93194927</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>128149.8474805341</v>
+        <v>11745721.89433272</v>
       </c>
     </row>
   </sheetData>
